--- a/acciones131.xlsx
+++ b/acciones131.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="274">
   <si>
     <t>No.</t>
   </si>
@@ -67,10 +67,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>21.22B</t>
-  </si>
-  <si>
-    <t>320.40M</t>
+    <t>21.59B</t>
+  </si>
+  <si>
+    <t>320.00M</t>
   </si>
   <si>
     <t>316.75M</t>
@@ -82,574 +82,583 @@
     <t>-5.96%</t>
   </si>
   <si>
-    <t>87.40%</t>
+    <t>87.30%</t>
+  </si>
+  <si>
+    <t>0.07%</t>
+  </si>
+  <si>
+    <t>1.12%</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>2.25M</t>
+  </si>
+  <si>
+    <t>67.20</t>
+  </si>
+  <si>
+    <t>-0.39%</t>
+  </si>
+  <si>
+    <t>1,972,342</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>6.75B</t>
+  </si>
+  <si>
+    <t>186.47M</t>
+  </si>
+  <si>
+    <t>186.03M</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>86.60%</t>
+  </si>
+  <si>
+    <t>-0.45%</t>
+  </si>
+  <si>
+    <t>2.83%</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>4.42M</t>
+  </si>
+  <si>
+    <t>36.70</t>
+  </si>
+  <si>
+    <t>1.41%</t>
+  </si>
+  <si>
+    <t>5,556,455</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>AAAU</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>155.71K</t>
+  </si>
+  <si>
+    <t>12.22</t>
+  </si>
+  <si>
+    <t>-0.16%</t>
+  </si>
+  <si>
+    <t>7,513</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>AABA</t>
+  </si>
+  <si>
+    <t>36.79B</t>
+  </si>
+  <si>
+    <t>585.48M</t>
+  </si>
+  <si>
+    <t>347.82M</t>
+  </si>
+  <si>
+    <t>7.83%</t>
+  </si>
+  <si>
+    <t>84.87%</t>
+  </si>
+  <si>
+    <t>-3.33%</t>
+  </si>
+  <si>
+    <t>7.13%</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>11.65M</t>
+  </si>
+  <si>
+    <t>62.19</t>
+  </si>
+  <si>
+    <t>-1.02%</t>
+  </si>
+  <si>
+    <t>5,804,814</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>AAC</t>
+  </si>
+  <si>
+    <t>168.94M</t>
+  </si>
+  <si>
+    <t>24.52M</t>
+  </si>
+  <si>
+    <t>12.18M</t>
+  </si>
+  <si>
+    <t>11.10%</t>
+  </si>
+  <si>
+    <t>-3.37%</t>
+  </si>
+  <si>
+    <t>66.30%</t>
+  </si>
+  <si>
+    <t>1.38%</t>
+  </si>
+  <si>
+    <t>20.18%</t>
+  </si>
+  <si>
+    <t>12.21</t>
+  </si>
+  <si>
+    <t>201.22K</t>
+  </si>
+  <si>
+    <t>6.87</t>
+  </si>
+  <si>
+    <t>-0.29%</t>
+  </si>
+  <si>
+    <t>138,674</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>AADR</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>35.01K</t>
+  </si>
+  <si>
+    <t>49.91</t>
+  </si>
+  <si>
+    <t>-0.83%</t>
+  </si>
+  <si>
+    <t>13,923</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>15.50B</t>
+  </si>
+  <si>
+    <t>465.87M</t>
+  </si>
+  <si>
+    <t>457.51M</t>
+  </si>
+  <si>
+    <t>0.90%</t>
+  </si>
+  <si>
+    <t>-0.36%</t>
+  </si>
+  <si>
+    <t>81.80%</t>
+  </si>
+  <si>
+    <t>-2.06%</t>
+  </si>
+  <si>
+    <t>5.77%</t>
+  </si>
+  <si>
+    <t>3.73</t>
+  </si>
+  <si>
+    <t>7.06M</t>
+  </si>
+  <si>
+    <t>33.57</t>
+  </si>
+  <si>
+    <t>0.87%</t>
+  </si>
+  <si>
+    <t>15,002,690</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>AAMC</t>
+  </si>
+  <si>
+    <t>82.52M</t>
+  </si>
+  <si>
+    <t>1.58M</t>
+  </si>
+  <si>
+    <t>0.85M</t>
+  </si>
+  <si>
+    <t>0.60%</t>
+  </si>
+  <si>
+    <t>39.00%</t>
+  </si>
+  <si>
+    <t>4.28%</t>
+  </si>
+  <si>
+    <t>26.48</t>
+  </si>
+  <si>
+    <t>1.38K</t>
+  </si>
+  <si>
+    <t>49.95</t>
+  </si>
+  <si>
+    <t>-4.37%</t>
+  </si>
+  <si>
+    <t>1,874</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>AAME</t>
+  </si>
+  <si>
+    <t>58.75M</t>
+  </si>
+  <si>
+    <t>20.40M</t>
+  </si>
+  <si>
+    <t>4.03M</t>
+  </si>
+  <si>
+    <t>5.30%</t>
+  </si>
+  <si>
+    <t>-0.55%</t>
+  </si>
+  <si>
+    <t>0.12%</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>4.46K</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>2.43%</t>
+  </si>
+  <si>
+    <t>2,212</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>AAN</t>
+  </si>
+  <si>
+    <t>3.60B</t>
+  </si>
+  <si>
+    <t>69.65M</t>
+  </si>
+  <si>
+    <t>68.52M</t>
+  </si>
+  <si>
+    <t>1.20%</t>
+  </si>
+  <si>
+    <t>-14.59%</t>
+  </si>
+  <si>
+    <t>0.75%</t>
+  </si>
+  <si>
+    <t>4.10%</t>
+  </si>
+  <si>
+    <t>4.62</t>
+  </si>
+  <si>
+    <t>608.37K</t>
+  </si>
+  <si>
+    <t>50.46</t>
+  </si>
+  <si>
+    <t>-2.25%</t>
+  </si>
+  <si>
+    <t>733,969</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>AAOI</t>
+  </si>
+  <si>
+    <t>442.16M</t>
+  </si>
+  <si>
+    <t>18.92M</t>
+  </si>
+  <si>
+    <t>18.64M</t>
+  </si>
+  <si>
+    <t>7.00%</t>
+  </si>
+  <si>
+    <t>-0.34%</t>
+  </si>
+  <si>
+    <t>73.90%</t>
+  </si>
+  <si>
+    <t>44.37%</t>
+  </si>
+  <si>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>1.37M</t>
+  </si>
+  <si>
+    <t>23.15</t>
+  </si>
+  <si>
+    <t>-0.94%</t>
+  </si>
+  <si>
+    <t>468,714</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>AAON</t>
+  </si>
+  <si>
+    <t>1.71B</t>
+  </si>
+  <si>
+    <t>52.18M</t>
+  </si>
+  <si>
+    <t>40.75M</t>
+  </si>
+  <si>
+    <t>19.70%</t>
+  </si>
+  <si>
+    <t>-0.13%</t>
+  </si>
+  <si>
+    <t>72.80%</t>
+  </si>
+  <si>
+    <t>-0.02%</t>
+  </si>
+  <si>
+    <t>11.36%</t>
+  </si>
+  <si>
+    <t>25.28</t>
+  </si>
+  <si>
+    <t>183.12K</t>
+  </si>
+  <si>
+    <t>32.66</t>
+  </si>
+  <si>
+    <t>-0.37%</t>
+  </si>
+  <si>
+    <t>127,536</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>AAP</t>
+  </si>
+  <si>
+    <t>12.47B</t>
+  </si>
+  <si>
+    <t>74.05M</t>
+  </si>
+  <si>
+    <t>73.87M</t>
+  </si>
+  <si>
+    <t>0.30%</t>
+  </si>
+  <si>
+    <t>0.57%</t>
+  </si>
+  <si>
+    <t>0.04%</t>
+  </si>
+  <si>
+    <t>3.38%</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>949.16K</t>
+  </si>
+  <si>
+    <t>159.58</t>
+  </si>
+  <si>
+    <t>-5.22%</t>
+  </si>
+  <si>
+    <t>1,958,333</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>1084.57B</t>
+  </si>
+  <si>
+    <t>4.88B</t>
+  </si>
+  <si>
+    <t>4.83B</t>
+  </si>
+  <si>
+    <t>-18.88%</t>
+  </si>
+  <si>
+    <t>61.60%</t>
+  </si>
+  <si>
+    <t>0.06%</t>
+  </si>
+  <si>
+    <t>0.83%</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>30.80M</t>
+  </si>
+  <si>
+    <t>221.19</t>
+  </si>
+  <si>
+    <t>-0.43%</t>
+  </si>
+  <si>
+    <t>22,203,712</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>AAT</t>
+  </si>
+  <si>
+    <t>1.76B</t>
+  </si>
+  <si>
+    <t>47.81M</t>
+  </si>
+  <si>
+    <t>46.67M</t>
+  </si>
+  <si>
+    <t>0.40%</t>
+  </si>
+  <si>
+    <t>100.21%</t>
+  </si>
+  <si>
+    <t>99.10%</t>
   </si>
   <si>
     <t>0.08%</t>
   </si>
   <si>
-    <t>1.35%</t>
-  </si>
-  <si>
-    <t>1.95</t>
-  </si>
-  <si>
-    <t>2.20M</t>
-  </si>
-  <si>
-    <t>66.24</t>
-  </si>
-  <si>
-    <t>2.08%</t>
-  </si>
-  <si>
-    <t>3,666,085</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>6.82B</t>
-  </si>
-  <si>
-    <t>191.13M</t>
-  </si>
-  <si>
-    <t>186.04M</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>86.90%</t>
-  </si>
-  <si>
-    <t>-0.03%</t>
-  </si>
-  <si>
-    <t>4.02%</t>
-  </si>
-  <si>
-    <t>1.71</t>
-  </si>
-  <si>
-    <t>4.38M</t>
-  </si>
-  <si>
-    <t>35.67</t>
-  </si>
-  <si>
-    <t>2,846,361</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>AAAU</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>165.99K</t>
-  </si>
-  <si>
-    <t>12.20</t>
-  </si>
-  <si>
-    <t>-0.25%</t>
-  </si>
-  <si>
-    <t>20,347</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>AABA</t>
-  </si>
-  <si>
-    <t>37.92B</t>
-  </si>
-  <si>
-    <t>611.88M</t>
-  </si>
-  <si>
-    <t>347.82M</t>
-  </si>
-  <si>
-    <t>7.83%</t>
-  </si>
-  <si>
-    <t>84.87%</t>
-  </si>
-  <si>
-    <t>-3.19%</t>
-  </si>
-  <si>
-    <t>6.53%</t>
-  </si>
-  <si>
-    <t>1.94</t>
-  </si>
-  <si>
-    <t>11.73M</t>
-  </si>
-  <si>
-    <t>61.98</t>
-  </si>
-  <si>
-    <t>3.42%</t>
-  </si>
-  <si>
-    <t>6,631,477</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>AAC</t>
-  </si>
-  <si>
-    <t>171.69M</t>
-  </si>
-  <si>
-    <t>24.81M</t>
-  </si>
-  <si>
-    <t>12.19M</t>
-  </si>
-  <si>
-    <t>19.10%</t>
-  </si>
-  <si>
-    <t>-1.97%</t>
-  </si>
-  <si>
-    <t>66.30%</t>
-  </si>
-  <si>
-    <t>1.36%</t>
-  </si>
-  <si>
-    <t>18.56%</t>
-  </si>
-  <si>
-    <t>11.46</t>
-  </si>
-  <si>
-    <t>197.43K</t>
-  </si>
-  <si>
-    <t>6.92</t>
-  </si>
-  <si>
-    <t>0.29%</t>
-  </si>
-  <si>
-    <t>168,469</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>AADR</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>34.83K</t>
-  </si>
-  <si>
-    <t>48.71</t>
-  </si>
-  <si>
-    <t>1.78%</t>
-  </si>
-  <si>
-    <t>25,445</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>14.81B</t>
-  </si>
-  <si>
-    <t>479.21M</t>
-  </si>
-  <si>
-    <t>457.51M</t>
-  </si>
-  <si>
-    <t>0.90%</t>
-  </si>
-  <si>
-    <t>-0.35%</t>
-  </si>
-  <si>
-    <t>81.70%</t>
-  </si>
-  <si>
-    <t>-2.08%</t>
-  </si>
-  <si>
-    <t>5.78%</t>
-  </si>
-  <si>
-    <t>3.80</t>
-  </si>
-  <si>
-    <t>6.96M</t>
-  </si>
-  <si>
-    <t>30.91</t>
-  </si>
-  <si>
-    <t>-1.15%</t>
-  </si>
-  <si>
-    <t>12,850,088</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>AAMC</t>
-  </si>
-  <si>
-    <t>82.72M</t>
-  </si>
-  <si>
-    <t>1.60M</t>
-  </si>
-  <si>
-    <t>0.84M</t>
-  </si>
-  <si>
-    <t>0.60%</t>
-  </si>
-  <si>
-    <t>39.00%</t>
-  </si>
-  <si>
-    <t>4.35%</t>
-  </si>
-  <si>
-    <t>27.35</t>
-  </si>
-  <si>
-    <t>1.33K</t>
-  </si>
-  <si>
-    <t>51.70</t>
-  </si>
-  <si>
-    <t>1.85%</t>
-  </si>
-  <si>
-    <t>2,811</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>AAME</t>
-  </si>
-  <si>
-    <t>55.72M</t>
-  </si>
-  <si>
-    <t>20.26M</t>
-  </si>
-  <si>
-    <t>4.03M</t>
-  </si>
-  <si>
-    <t>5.30%</t>
-  </si>
-  <si>
-    <t>-0.56%</t>
-  </si>
-  <si>
-    <t>0.02%</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>4.01K</t>
-  </si>
-  <si>
-    <t>2.75</t>
-  </si>
-  <si>
-    <t>-0.72%</t>
-  </si>
-  <si>
-    <t>18,022</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>AAN</t>
-  </si>
-  <si>
-    <t>3.44B</t>
-  </si>
-  <si>
-    <t>69.02M</t>
-  </si>
-  <si>
-    <t>68.52M</t>
-  </si>
-  <si>
-    <t>1.20%</t>
-  </si>
-  <si>
-    <t>-14.71%</t>
-  </si>
-  <si>
-    <t>0.03%</t>
-  </si>
-  <si>
-    <t>4.06%</t>
-  </si>
-  <si>
-    <t>4.59</t>
-  </si>
-  <si>
-    <t>605.82K</t>
-  </si>
-  <si>
-    <t>49.87</t>
-  </si>
-  <si>
-    <t>2.17%</t>
-  </si>
-  <si>
-    <t>520,285</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>AAOI</t>
-  </si>
-  <si>
-    <t>461.84M</t>
-  </si>
-  <si>
-    <t>20.15M</t>
-  </si>
-  <si>
-    <t>18.64M</t>
-  </si>
-  <si>
-    <t>7.00%</t>
-  </si>
-  <si>
-    <t>-0.32%</t>
-  </si>
-  <si>
-    <t>73.90%</t>
-  </si>
-  <si>
-    <t>-0.53%</t>
-  </si>
-  <si>
-    <t>38.35%</t>
-  </si>
-  <si>
-    <t>5.08</t>
-  </si>
-  <si>
-    <t>1.41M</t>
-  </si>
-  <si>
-    <t>22.92</t>
-  </si>
-  <si>
-    <t>4.09%</t>
-  </si>
-  <si>
-    <t>971,491</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>AAON</t>
-  </si>
-  <si>
-    <t>1.69B</t>
-  </si>
-  <si>
-    <t>53.13M</t>
-  </si>
-  <si>
-    <t>40.75M</t>
-  </si>
-  <si>
-    <t>19.70%</t>
-  </si>
-  <si>
-    <t>-0.12%</t>
-  </si>
-  <si>
-    <t>72.80%</t>
-  </si>
-  <si>
-    <t>-0.01%</t>
-  </si>
-  <si>
-    <t>12.38%</t>
-  </si>
-  <si>
-    <t>27.94</t>
-  </si>
-  <si>
-    <t>180.55K</t>
-  </si>
-  <si>
-    <t>31.89</t>
-  </si>
-  <si>
-    <t>0.16%</t>
-  </si>
-  <si>
-    <t>211,641</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>AAP</t>
-  </si>
-  <si>
-    <t>12.22B</t>
-  </si>
-  <si>
-    <t>74.03M</t>
-  </si>
-  <si>
-    <t>73.87M</t>
-  </si>
-  <si>
-    <t>0.40%</t>
-  </si>
-  <si>
-    <t>0.42%</t>
-  </si>
-  <si>
-    <t>0.07%</t>
-  </si>
-  <si>
-    <t>2.71</t>
-  </si>
-  <si>
-    <t>933.35K</t>
-  </si>
-  <si>
-    <t>165.12</t>
-  </si>
-  <si>
-    <t>2.53%</t>
-  </si>
-  <si>
-    <t>1,096,358</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>1090.47B</t>
-  </si>
-  <si>
-    <t>4.91B</t>
-  </si>
-  <si>
-    <t>4.83B</t>
-  </si>
-  <si>
-    <t>-19.56%</t>
-  </si>
-  <si>
-    <t>61.50%</t>
-  </si>
-  <si>
-    <t>-0.02%</t>
-  </si>
-  <si>
-    <t>0.97%</t>
-  </si>
-  <si>
-    <t>1.56</t>
-  </si>
-  <si>
-    <t>29.96M</t>
-  </si>
-  <si>
-    <t>222.11</t>
-  </si>
-  <si>
-    <t>3.57%</t>
-  </si>
-  <si>
-    <t>39,446,813</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>AAT</t>
-  </si>
-  <si>
-    <t>1.66B</t>
-  </si>
-  <si>
-    <t>46.87M</t>
-  </si>
-  <si>
-    <t>46.67M</t>
-  </si>
-  <si>
-    <t>102.22%</t>
-  </si>
-  <si>
-    <t>98.80%</t>
-  </si>
-  <si>
-    <t>1.32%</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>205.72K</t>
-  </si>
-  <si>
-    <t>35.46</t>
-  </si>
-  <si>
-    <t>-1.23%</t>
-  </si>
-  <si>
-    <t>264,265</t>
+    <t>1.07%</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>204.52K</t>
+  </si>
+  <si>
+    <t>36.61</t>
+  </si>
+  <si>
+    <t>-0.76%</t>
+  </si>
+  <si>
+    <t>103,729</t>
   </si>
   <si>
     <t>16</t>
@@ -658,13 +667,13 @@
     <t>AAU</t>
   </si>
   <si>
-    <t>54.84M</t>
-  </si>
-  <si>
-    <t>109.68M</t>
-  </si>
-  <si>
-    <t>98.04M</t>
+    <t>67.48M</t>
+  </si>
+  <si>
+    <t>121.60M</t>
+  </si>
+  <si>
+    <t>98.03M</t>
   </si>
   <si>
     <t>7.20%</t>
@@ -673,25 +682,25 @@
     <t>5.90%</t>
   </si>
   <si>
-    <t>53.30%</t>
-  </si>
-  <si>
-    <t>1.87%</t>
-  </si>
-  <si>
-    <t>12.14</t>
-  </si>
-  <si>
-    <t>151.12K</t>
-  </si>
-  <si>
-    <t>0.50</t>
-  </si>
-  <si>
-    <t>-7.41%</t>
-  </si>
-  <si>
-    <t>374,608</t>
+    <t>45.69%</t>
+  </si>
+  <si>
+    <t>1.91%</t>
+  </si>
+  <si>
+    <t>10.78</t>
+  </si>
+  <si>
+    <t>173.41K</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>-3.30%</t>
+  </si>
+  <si>
+    <t>150,676</t>
   </si>
   <si>
     <t>17</t>
@@ -700,37 +709,34 @@
     <t>AAWW</t>
   </si>
   <si>
-    <t>1.41B</t>
-  </si>
-  <si>
-    <t>26.63M</t>
+    <t>1.38B</t>
+  </si>
+  <si>
+    <t>25.57M</t>
   </si>
   <si>
     <t>25.08M</t>
   </si>
   <si>
-    <t>-19.60%</t>
-  </si>
-  <si>
-    <t>0.05%</t>
-  </si>
-  <si>
-    <t>11.28%</t>
-  </si>
-  <si>
-    <t>10.76</t>
-  </si>
-  <si>
-    <t>263.02K</t>
-  </si>
-  <si>
-    <t>53.13</t>
-  </si>
-  <si>
-    <t>2.02%</t>
-  </si>
-  <si>
-    <t>443,162</t>
+    <t>-20.25%</t>
+  </si>
+  <si>
+    <t>10.84%</t>
+  </si>
+  <si>
+    <t>10.17</t>
+  </si>
+  <si>
+    <t>267.46K</t>
+  </si>
+  <si>
+    <t>53.58</t>
+  </si>
+  <si>
+    <t>-0.41%</t>
+  </si>
+  <si>
+    <t>183,816</t>
   </si>
   <si>
     <t>18</t>
@@ -739,19 +745,19 @@
     <t>AAXJ</t>
   </si>
   <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>1.12M</t>
-  </si>
-  <si>
-    <t>64.98</t>
-  </si>
-  <si>
-    <t>2.72%</t>
-  </si>
-  <si>
-    <t>2,205,171</t>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>1.16M</t>
+  </si>
+  <si>
+    <t>64.71</t>
+  </si>
+  <si>
+    <t>-1.25%</t>
+  </si>
+  <si>
+    <t>604,154</t>
   </si>
   <si>
     <t>19</t>
@@ -760,37 +766,37 @@
     <t>AAXN</t>
   </si>
   <si>
-    <t>58.45M</t>
-  </si>
-  <si>
-    <t>57.01M</t>
+    <t>3.41B</t>
+  </si>
+  <si>
+    <t>55.67M</t>
   </si>
   <si>
     <t>2.20%</t>
   </si>
   <si>
-    <t>-20.88%</t>
+    <t>-21.69%</t>
   </si>
   <si>
     <t>82.50%</t>
   </si>
   <si>
-    <t>6.51%</t>
-  </si>
-  <si>
-    <t>5.36</t>
-  </si>
-  <si>
-    <t>692.23K</t>
-  </si>
-  <si>
-    <t>58.86</t>
-  </si>
-  <si>
-    <t>4.75%</t>
-  </si>
-  <si>
-    <t>701,724</t>
+    <t>6.66%</t>
+  </si>
+  <si>
+    <t>5.35</t>
+  </si>
+  <si>
+    <t>692.41K</t>
+  </si>
+  <si>
+    <t>61.65</t>
+  </si>
+  <si>
+    <t>0.67%</t>
+  </si>
+  <si>
+    <t>521,199</t>
   </si>
   <si>
     <t>20</t>
@@ -802,34 +808,34 @@
     <t>2.89B</t>
   </si>
   <si>
-    <t>98.96M</t>
+    <t>94.87M</t>
   </si>
   <si>
     <t>93.78M</t>
   </si>
   <si>
-    <t>21.10%</t>
-  </si>
-  <si>
-    <t>0.46%</t>
-  </si>
-  <si>
-    <t>0.84%</t>
-  </si>
-  <si>
-    <t>2.91</t>
-  </si>
-  <si>
-    <t>271.61K</t>
-  </si>
-  <si>
-    <t>29.20</t>
-  </si>
-  <si>
-    <t>3.33%</t>
-  </si>
-  <si>
-    <t>489,312</t>
+    <t>21.20%</t>
+  </si>
+  <si>
+    <t>0.74%</t>
+  </si>
+  <si>
+    <t>0.78%</t>
+  </si>
+  <si>
+    <t>2.53</t>
+  </si>
+  <si>
+    <t>287.82K</t>
+  </si>
+  <si>
+    <t>30.65</t>
+  </si>
+  <si>
+    <t>0.49%</t>
+  </si>
+  <si>
+    <t>371,274</t>
   </si>
 </sst>
 </file>
@@ -1301,295 +1307,295 @@
         <v>41</v>
       </c>
       <c r="AR1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AS1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AT1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AU1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AV1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AW1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AX1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AY1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AZ1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BA1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BB1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BC1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BD1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="BE1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BF1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BG1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BH1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BI1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BJ1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BK1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BL1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BM1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BN1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO1" t="s">
         <v>35</v>
       </c>
       <c r="BP1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BR1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BS1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BT1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BV1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BW1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BX1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BY1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BZ1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CA1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="CB1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="CC1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="CD1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="CE1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="CF1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="CG1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CH1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CI1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CJ1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CK1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CL1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CM1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CN1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CO1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CP1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CQ1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CR1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CS1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CT1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CU1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CV1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CW1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CX1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CY1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CZ1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="DA1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="DB1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="DC1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="DD1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="DE1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="DF1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="DG1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="DH1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="DI1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="DJ1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="DK1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="DL1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="DM1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DN1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DO1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DP1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="DQ1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="DR1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="DS1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="DT1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DU1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="DV1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="DW1" t="s">
         <v>35</v>
       </c>
       <c r="DX1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="DY1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="DZ1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="EA1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="EB1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="EC1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="ED1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="EE1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="EF1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="EG1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="EH1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="EI1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="EJ1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="EK1" t="s">
         <v>20</v>
@@ -1598,100 +1604,100 @@
         <v>35</v>
       </c>
       <c r="EM1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="EN1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="EO1" t="s">
+        <v>123</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>124</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>125</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>126</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>127</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>128</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>132</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>134</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>135</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>46</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>136</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>137</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>138</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>139</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>140</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>141</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>142</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>143</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>144</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>145</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>146</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>147</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>148</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>149</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>150</v>
+      </c>
+      <c r="FR1" t="s">
         <v>122</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>123</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>124</v>
-      </c>
-      <c r="ER1" t="s">
-        <v>125</v>
-      </c>
-      <c r="ES1" t="s">
-        <v>126</v>
-      </c>
-      <c r="ET1" t="s">
-        <v>127</v>
-      </c>
-      <c r="EU1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EV1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EW1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EX1" t="s">
-        <v>131</v>
-      </c>
-      <c r="EY1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EZ1" t="s">
-        <v>133</v>
-      </c>
-      <c r="FA1" t="s">
-        <v>134</v>
-      </c>
-      <c r="FB1" t="s">
-        <v>45</v>
-      </c>
-      <c r="FC1" t="s">
-        <v>135</v>
-      </c>
-      <c r="FD1" t="s">
-        <v>136</v>
-      </c>
-      <c r="FE1" t="s">
-        <v>137</v>
-      </c>
-      <c r="FF1" t="s">
-        <v>138</v>
-      </c>
-      <c r="FG1" t="s">
-        <v>139</v>
-      </c>
-      <c r="FH1" t="s">
-        <v>140</v>
-      </c>
-      <c r="FI1" t="s">
-        <v>141</v>
-      </c>
-      <c r="FJ1" t="s">
-        <v>142</v>
-      </c>
-      <c r="FK1" t="s">
-        <v>143</v>
-      </c>
-      <c r="FL1" t="s">
-        <v>144</v>
-      </c>
-      <c r="FM1" t="s">
-        <v>145</v>
-      </c>
-      <c r="FN1" t="s">
-        <v>146</v>
-      </c>
-      <c r="FO1" t="s">
-        <v>147</v>
-      </c>
-      <c r="FP1" t="s">
-        <v>148</v>
-      </c>
-      <c r="FQ1" t="s">
-        <v>149</v>
-      </c>
-      <c r="FR1" t="s">
-        <v>150</v>
       </c>
       <c r="FS1" t="s">
         <v>151</v>
@@ -1778,313 +1784,313 @@
         <v>178</v>
       </c>
       <c r="GU1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="GV1" t="s">
         <v>179</v>
       </c>
       <c r="GW1" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="GX1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="GY1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="GZ1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="HA1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="HB1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="HC1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="HD1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="HE1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="HF1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="HG1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="HH1" t="s">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="HI1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="HJ1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="HK1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="HL1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="HM1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="HN1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="HO1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="HP1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="HQ1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="HR1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="HS1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="HT1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="HU1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="HV1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="HW1" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="HX1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="HY1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="HZ1" t="s">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="IA1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="IB1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="IC1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="ID1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="IE1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="IF1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="IG1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="IH1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="II1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="IJ1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="IK1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="IL1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="IM1" t="s">
         <v>35</v>
       </c>
       <c r="IN1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="IO1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="IP1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="IQ1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="IR1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="IS1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="IT1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="IU1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="IV1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IW1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IX1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="IY1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="IZ1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="JA1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="JB1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="JC1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="JD1" t="s">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="JE1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="JF1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="JG1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="JH1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="JI1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="JJ1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="JK1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="JL1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="JM1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="JN1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="JO1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="JP1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="JQ1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="JR1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="JS1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="JT1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="JU1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="JV1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="JW1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="JX1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="JY1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="JZ1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="KA1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="KB1" t="s">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="KC1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="KD1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="KE1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="KF1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="KG1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="KH1" t="s">
         <v>35</v>
       </c>
       <c r="KI1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="KJ1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="KK1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="KL1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="KM1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="KN1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="KO1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="KP1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="KQ1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="KR1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="KS1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="KT1" t="s">
         <v>20</v>
@@ -2093,28 +2099,28 @@
         <v>35</v>
       </c>
       <c r="KV1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="KW1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="KX1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="KY1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="KZ1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="LA1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="LB1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="LC1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:315">
@@ -2205,309 +2211,309 @@
         <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:315">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:315">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:315">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:315">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:315">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:315">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:315">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
@@ -2516,104 +2522,104 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:315">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:315">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I12" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
         <v>151</v>
@@ -2704,327 +2710,327 @@
         <v>178</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
         <v>179</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="K14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:315">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F15" t="s">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:315">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F16" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G16" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="J16" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K16" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L16" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M16" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N16" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O16" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D17" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E17" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F17" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G17" t="s">
         <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I17" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J17" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K17" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L17" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M17" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N17" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O17" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B18" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C18" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D18" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E18" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G18" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="J18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K18" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M18" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N18" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O18" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L19" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N19" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O19" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="D20" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E20" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F20" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G20" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H20" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I20" t="s">
         <v>35</v>
       </c>
       <c r="J20" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L20" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M20" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N20" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O20" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C21" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D21" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E21" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
@@ -3033,28 +3039,28 @@
         <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I21" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J21" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K21" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L21" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M21" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N21" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O21" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
